--- a/VerbTense2 Repo.xlsx
+++ b/VerbTense2 Repo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellencooper/Google Drive/Work Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28C3BF-FADE-9C45-8D3B-9F3EFC5B0F41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0786F3C7-9628-AC46-8332-F9CCBBDD1A68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{6ADFBC0E-4E87-594A-A376-4135510BA773}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="172">
   <si>
     <t>Verb</t>
   </si>
@@ -543,13 +543,16 @@
   </si>
   <si>
     <t>"write"</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -582,8 +585,15 @@
       <name val="Courier"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -605,11 +621,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,8 +636,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -934,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783362E1-9BAB-3045-BCB6-55656818966D}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G84"/>
+    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2707,11 +2729,11 @@
         <v>4</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" ref="D66:D84" si="8">"verbTense(" &amp; ROW(A66)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A66</f>
+        <f t="shared" ref="D66:D85" si="8">"verbTense(" &amp; ROW(A66)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A66</f>
         <v>verbTense(65, 1) = "prototyping"</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f t="shared" ref="E66:E84" si="9">"verbTense(" &amp; ROW(A66)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B66</f>
+        <f t="shared" ref="E66:E85" si="9">"verbTense(" &amp; ROW(A66)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B66</f>
         <v>verbTense(65, 2) = "prototype"</v>
       </c>
       <c r="F66" s="3" t="str">
@@ -2719,7 +2741,7 @@
         <v>verbTense(65, 3) = "N"</v>
       </c>
       <c r="G66" s="3" t="str">
-        <f t="shared" ref="G66:G97" si="11" xml:space="preserve"> D66 &amp; " : " &amp; E66 &amp; " : " &amp; F66</f>
+        <f t="shared" ref="G66:G84" si="11" xml:space="preserve"> D66 &amp; " : " &amp; E66 &amp; " : " &amp; F66</f>
         <v>verbTense(65, 1) = "prototyping" : verbTense(65, 2) = "prototype" : verbTense(65, 3) = "N"</v>
       </c>
     </row>
@@ -3207,6 +3229,33 @@
       <c r="G84" s="3" t="str">
         <f t="shared" si="11"/>
         <v>verbTense(83, 1) = "writing" : verbTense(83, 2) = "write" : verbTense(83, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>verbTense(84, 1) = ""</v>
+      </c>
+      <c r="E85" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(84, 2) = ""</v>
+      </c>
+      <c r="F85" s="6" t="str">
+        <f t="shared" ref="F85" si="12">"verbTense(" &amp; ROW(A85)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C85</f>
+        <v>verbTense(84, 3) = "N"</v>
+      </c>
+      <c r="G85" s="6" t="str">
+        <f t="shared" ref="G85" si="13" xml:space="preserve"> D85 &amp; " : " &amp; E85 &amp; " : " &amp; F85</f>
+        <v>verbTense(84, 1) = "" : verbTense(84, 2) = "" : verbTense(84, 3) = "N"</v>
       </c>
     </row>
   </sheetData>

--- a/VerbTense2 Repo.xlsx
+++ b/VerbTense2 Repo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellencooper/Google Drive/Work Stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PaperlessBeta\To Do\Ellen\Macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0786F3C7-9628-AC46-8332-F9CCBBDD1A68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7C873-CFD9-4A00-85F0-F705DEFCE53D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{6ADFBC0E-4E87-594A-A376-4135510BA773}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25275" windowHeight="7920" xr2:uid="{6ADFBC0E-4E87-594A-A376-4135510BA773}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="177">
   <si>
     <t>Verb</t>
   </si>
@@ -546,6 +547,21 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>"solving"</t>
+  </si>
+  <si>
+    <t>"solve"</t>
+  </si>
+  <si>
+    <t>"Y"</t>
+  </si>
+  <si>
+    <t>"deploying"</t>
+  </si>
+  <si>
+    <t>"deploy"</t>
   </si>
 </sst>
 </file>
@@ -956,24 +972,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783362E1-9BAB-3045-BCB6-55656818966D}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
     <col min="5" max="5" width="41.5" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" customWidth="1"/>
-    <col min="7" max="7" width="116.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.875" customWidth="1"/>
+    <col min="7" max="7" width="116.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1001,23 +1017,23 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D33" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A2</f>
+        <f t="shared" ref="D2:D34" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A2</f>
         <v>verbTense(1, 1) = "achieving"</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E33" si="1">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
+        <f t="shared" ref="E2:E34" si="1">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
         <v>verbTense(1, 2) = "achieve"</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f t="shared" ref="F2:F33" si="2">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C2</f>
+        <f t="shared" ref="F2:F34" si="2">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C2</f>
         <v>verbTense(1, 3) = "N"</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G33" si="3" xml:space="preserve"> D2 &amp; " : " &amp; E2 &amp; " : " &amp; F2</f>
+        <f t="shared" ref="G2:G34" si="3" xml:space="preserve"> D2 &amp; " : " &amp; E2 &amp; " : " &amp; F2</f>
         <v>verbTense(1, 1) = "achieving" : verbTense(1, 2) = "achieve" : verbTense(1, 3) = "N"</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1060,7 @@
         <v>verbTense(2, 1) = "administering" : verbTense(2, 2) = "administer" : verbTense(2, 3) = "N"</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +1087,7 @@
         <v>verbTense(3, 1) = "analyzing" : verbTense(3, 2) = "analyze" : verbTense(3, 3) = "N"</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1098,7 +1114,7 @@
         <v>verbTense(4, 1) = "answering" : verbTense(4, 2) = "answer" : verbTense(4, 3) = "N"</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1141,7 @@
         <v>verbTense(5, 1) = "applying" : verbTense(5, 2) = "apply" : verbTense(5, 3) = "N"</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>verbTense(6, 1) = "assisting" : verbTense(6, 2) = "assist" : verbTense(6, 3) = "N"</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1195,7 @@
         <v>verbTense(7, 1) = "attending" : verbTense(7, 2) = "attend" : verbTense(7, 3) = "N"</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1222,7 @@
         <v>verbTense(8, 1) = "automating" : verbTense(8, 2) = "automate" : verbTense(8, 3) = "N"</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1249,7 @@
         <v>verbTense(9, 1) = "building" : verbTense(9, 2) = "build" : verbTense(9, 3) = "N"</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1276,7 @@
         <v>verbTense(10, 1) = "calculating" : verbTense(10, 2) = "calculate" : verbTense(10, 3) = "N"</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>verbTense(11, 1) = "capturing" : verbTense(11, 2) = "capture" : verbTense(11, 3) = "N"</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1314,7 +1330,7 @@
         <v>verbTense(12, 1) = "checking" : verbTense(12, 2) = "check" : verbTense(12, 3) = "N"</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1341,7 +1357,7 @@
         <v>verbTense(13, 1) = "collaborating" : verbTense(13, 2) = "collaborate" : verbTense(13, 3) = "N"</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1368,7 +1384,7 @@
         <v>verbTense(14, 1) = "coming" : verbTense(14, 2) = "come" : verbTense(14, 3) = "N"</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1395,7 +1411,7 @@
         <v>verbTense(15, 1) = "communicating" : verbTense(15, 2) = "communicate" : verbTense(15, 3) = "N"</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1403,7 +1419,7 @@
         <v>103</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1415,14 +1431,14 @@
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(16, 3) = "N"</v>
+        <v>verbTense(16, 3) = "Y"</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(16, 1) = "conducting" : verbTense(16, 2) = "conduct" : verbTense(16, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(16, 1) = "conducting" : verbTense(16, 2) = "conduct" : verbTense(16, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1465,7 @@
         <v>verbTense(17, 1) = "configuring" : verbTense(17, 2) = "configure" : verbTense(17, 3) = "N"</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1476,7 +1492,7 @@
         <v>verbTense(18, 1) = "coordinating" : verbTense(18, 2) = "coordinate" : verbTense(18, 3) = "N"</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1503,7 +1519,7 @@
         <v>verbTense(19, 1) = "creating" : verbTense(19, 2) = "create" : verbTense(19, 3) = "N"</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1530,23 +1546,23 @@
         <v>verbTense(20, 1) = "designing" : verbTense(20, 2) = "design" : verbTense(20, 3) = "N"</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(21, 1) = "determining"</v>
+        <v>verbTense(21, 1) = "deploying"</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(21, 2) = "determine"</v>
+        <v>verbTense(21, 2) = "deploy"</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1554,53 +1570,53 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(21, 1) = "determining" : verbTense(21, 2) = "determine" : verbTense(21, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(21, 1) = "deploying" : verbTense(21, 2) = "deploy" : verbTense(21, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(22, 1) = "developing"</v>
+        <v>verbTense(22, 1) = "determining"</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(22, 2) = "develop"</v>
+        <v>verbTense(22, 2) = "determine"</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(22, 3) = "N"</v>
+        <v>verbTense(22, 3) = "Y"</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(22, 1) = "developing" : verbTense(22, 2) = "develop" : verbTense(22, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(22, 1) = "determining" : verbTense(22, 2) = "determine" : verbTense(22, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(23, 1) = "discussing"</v>
+        <v>verbTense(23, 1) = "developing"</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(23, 2) = "discuss"</v>
+        <v>verbTense(23, 2) = "develop"</v>
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1608,26 +1624,26 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(23, 1) = "discussing" : verbTense(23, 2) = "discuss" : verbTense(23, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(23, 1) = "developing" : verbTense(23, 2) = "develop" : verbTense(23, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(24, 1) = "documenting"</v>
+        <v>verbTense(24, 1) = "discussing"</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(24, 2) = "document"</v>
+        <v>verbTense(24, 2) = "discuss"</v>
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1635,26 +1651,26 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(24, 1) = "documenting" : verbTense(24, 2) = "document" : verbTense(24, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(24, 1) = "discussing" : verbTense(24, 2) = "discuss" : verbTense(24, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(25, 1) = "drafting"</v>
+        <v>verbTense(25, 1) = "documenting"</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(25, 2) = "draft"</v>
+        <v>verbTense(25, 2) = "document"</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1662,26 +1678,26 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(25, 1) = "drafting" : verbTense(25, 2) = "draft" : verbTense(25, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(25, 1) = "documenting" : verbTense(25, 2) = "document" : verbTense(25, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(26, 1) = "driving"</v>
+        <v>verbTense(26, 1) = "drafting"</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(26, 2) = "drive"</v>
+        <v>verbTense(26, 2) = "draft"</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1689,26 +1705,26 @@
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(26, 1) = "driving" : verbTense(26, 2) = "drive" : verbTense(26, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(26, 1) = "drafting" : verbTense(26, 2) = "draft" : verbTense(26, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(27, 1) = "engaging"</v>
+        <v>verbTense(27, 1) = "driving"</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(27, 2) = "engage"</v>
+        <v>verbTense(27, 2) = "drive"</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1716,26 +1732,26 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(27, 1) = "engaging" : verbTense(27, 2) = "engage" : verbTense(27, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(27, 1) = "driving" : verbTense(27, 2) = "drive" : verbTense(27, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(28, 1) = "ensuring"</v>
+        <v>verbTense(28, 1) = "engaging"</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(28, 2) = "ensure"</v>
+        <v>verbTense(28, 2) = "engage"</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1743,26 +1759,26 @@
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(28, 1) = "ensuring" : verbTense(28, 2) = "ensure" : verbTense(28, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(28, 1) = "engaging" : verbTense(28, 2) = "engage" : verbTense(28, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(29, 1) = "establishing"</v>
+        <v>verbTense(29, 1) = "ensuring"</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(29, 2) = "establish"</v>
+        <v>verbTense(29, 2) = "ensure"</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1770,26 +1786,26 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(29, 1) = "establishing" : verbTense(29, 2) = "establish" : verbTense(29, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(29, 1) = "ensuring" : verbTense(29, 2) = "ensure" : verbTense(29, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(30, 1) = "estimating"</v>
+        <v>verbTense(30, 1) = "establishing"</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(30, 2) = "estimate"</v>
+        <v>verbTense(30, 2) = "establish"</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1797,26 +1813,26 @@
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(30, 1) = "estimating" : verbTense(30, 2) = "estimate" : verbTense(30, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(30, 1) = "establishing" : verbTense(30, 2) = "establish" : verbTense(30, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(31, 1) = "evaluating"</v>
+        <v>verbTense(31, 1) = "estimating"</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(31, 2) = "evaluate"</v>
+        <v>verbTense(31, 2) = "estimate"</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1824,134 +1840,134 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(31, 1) = "evaluating" : verbTense(31, 2) = "evaluate" : verbTense(31, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(31, 1) = "estimating" : verbTense(31, 2) = "estimate" : verbTense(31, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(32, 1) = "finding"</v>
+        <v>verbTense(32, 1) = "evaluating"</v>
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(32, 2) = "find"</v>
+        <v>verbTense(32, 2) = "evaluate"</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(32, 3) = "N"</v>
+        <v>verbTense(32, 3) = "Y"</v>
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(32, 1) = "finding" : verbTense(32, 2) = "find" : verbTense(32, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(32, 1) = "evaluating" : verbTense(32, 2) = "evaluate" : verbTense(32, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>verbTense(33, 1) = "finding"</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>verbTense(33, 2) = "find"</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>verbTense(33, 3) = "N"</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>verbTense(33, 1) = "finding" : verbTense(33, 2) = "find" : verbTense(33, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3" t="str">
-        <f t="shared" ref="D34:D65" si="4">"verbTense(" &amp; ROW(A34)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A34</f>
-        <v>verbTense(33, 1) = "focusing"</v>
-      </c>
-      <c r="E34" s="3" t="str">
-        <f t="shared" ref="E34:E65" si="5">"verbTense(" &amp; ROW(A34)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B34</f>
-        <v>verbTense(33, 2) = "focus"</v>
-      </c>
-      <c r="F34" s="3" t="str">
-        <f t="shared" ref="F34:F65" si="6">"verbTense(" &amp; ROW(A34)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C34</f>
-        <v>verbTense(33, 3) = "N"</v>
-      </c>
-      <c r="G34" s="3" t="str">
-        <f t="shared" ref="G34:G65" si="7" xml:space="preserve"> D34 &amp; " : " &amp; E34 &amp; " : " &amp; F34</f>
-        <v>verbTense(33, 1) = "focusing" : verbTense(33, 2) = "focus" : verbTense(33, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="C35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" ref="D35:D66" si="4">"verbTense(" &amp; ROW(A35)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A35</f>
+        <v>verbTense(34, 1) = "focusing"</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f t="shared" ref="E35:E66" si="5">"verbTense(" &amp; ROW(A35)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B35</f>
+        <v>verbTense(34, 2) = "focus"</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f t="shared" ref="F35:F66" si="6">"verbTense(" &amp; ROW(A35)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C35</f>
+        <v>verbTense(34, 3) = "Y"</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" ref="G35:G66" si="7" xml:space="preserve"> D35 &amp; " : " &amp; E35 &amp; " : " &amp; F35</f>
+        <v>verbTense(34, 1) = "focusing" : verbTense(34, 2) = "focus" : verbTense(34, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(34, 1) = "following"</v>
-      </c>
-      <c r="E35" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(34, 2) = "follow"</v>
-      </c>
-      <c r="F35" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(34, 3) = "N"</v>
-      </c>
-      <c r="G35" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(34, 1) = "following" : verbTense(34, 2) = "follow" : verbTense(34, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(35, 1) = "forecasting"</v>
+        <v>verbTense(35, 1) = "following"</v>
       </c>
       <c r="E36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(35, 2) = "forecast"</v>
+        <v>verbTense(35, 2) = "follow"</v>
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(35, 3) = "N"</v>
+        <v>verbTense(35, 3) = "Y"</v>
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(35, 1) = "forecasting" : verbTense(35, 2) = "forecast" : verbTense(35, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(35, 1) = "following" : verbTense(35, 2) = "follow" : verbTense(35, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(36, 1) = "generating"</v>
+        <v>verbTense(36, 1) = "forecasting"</v>
       </c>
       <c r="E37" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(36, 2) = "generate"</v>
+        <v>verbTense(36, 2) = "forecast"</v>
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1959,26 +1975,26 @@
       </c>
       <c r="G37" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(36, 1) = "generating" : verbTense(36, 2) = "generate" : verbTense(36, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(36, 1) = "forecasting" : verbTense(36, 2) = "forecast" : verbTense(36, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(37, 1) = "getting"</v>
+        <v>verbTense(37, 1) = "generating"</v>
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(37, 2) = "get"</v>
+        <v>verbTense(37, 2) = "generate"</v>
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1986,26 +2002,26 @@
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(37, 1) = "getting" : verbTense(37, 2) = "get" : verbTense(37, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(37, 1) = "generating" : verbTense(37, 2) = "generate" : verbTense(37, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(38, 1) = "handling"</v>
+        <v>verbTense(38, 1) = "getting"</v>
       </c>
       <c r="E39" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(38, 2) = "handle"</v>
+        <v>verbTense(38, 2) = "get"</v>
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2013,26 +2029,26 @@
       </c>
       <c r="G39" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(38, 1) = "handling" : verbTense(38, 2) = "handle" : verbTense(38, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(38, 1) = "getting" : verbTense(38, 2) = "get" : verbTense(38, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(39, 1) = "highlighting"</v>
+        <v>verbTense(39, 1) = "handling"</v>
       </c>
       <c r="E40" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(39, 2) = "highlight"</v>
+        <v>verbTense(39, 2) = "handle"</v>
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2040,26 +2056,26 @@
       </c>
       <c r="G40" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(39, 1) = "highlighting" : verbTense(39, 2) = "highlight" : verbTense(39, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(39, 1) = "handling" : verbTense(39, 2) = "handle" : verbTense(39, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(40, 1) = "identifying"</v>
+        <v>verbTense(40, 1) = "highlighting"</v>
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(40, 2) = "identify"</v>
+        <v>verbTense(40, 2) = "highlight"</v>
       </c>
       <c r="F41" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2067,26 +2083,26 @@
       </c>
       <c r="G41" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(40, 1) = "identifying" : verbTense(40, 2) = "identify" : verbTense(40, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(40, 1) = "highlighting" : verbTense(40, 2) = "highlight" : verbTense(40, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(41, 1) = "implementing"</v>
+        <v>verbTense(41, 1) = "identifying"</v>
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(41, 2) = "implement"</v>
+        <v>verbTense(41, 2) = "identify"</v>
       </c>
       <c r="F42" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2094,53 +2110,53 @@
       </c>
       <c r="G42" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(41, 1) = "implementing" : verbTense(41, 2) = "implement" : verbTense(41, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(41, 1) = "identifying" : verbTense(41, 2) = "identify" : verbTense(41, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(42, 1) = "installing"</v>
+        <v>verbTense(42, 1) = "implementing"</v>
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(42, 2) = "install"</v>
+        <v>verbTense(42, 2) = "implement"</v>
       </c>
       <c r="F43" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(42, 3) = "N"</v>
+        <v>verbTense(42, 3) = "Y"</v>
       </c>
       <c r="G43" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(42, 1) = "installing" : verbTense(42, 2) = "install" : verbTense(42, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(42, 1) = "implementing" : verbTense(42, 2) = "implement" : verbTense(42, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(43, 1) = "integrating"</v>
+        <v>verbTense(43, 1) = "installing"</v>
       </c>
       <c r="E44" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(43, 2) = "integrate"</v>
+        <v>verbTense(43, 2) = "install"</v>
       </c>
       <c r="F44" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2148,26 +2164,26 @@
       </c>
       <c r="G44" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(43, 1) = "integrating" : verbTense(43, 2) = "integrate" : verbTense(43, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(43, 1) = "installing" : verbTense(43, 2) = "install" : verbTense(43, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(44, 1) = "interacting"</v>
+        <v>verbTense(44, 1) = "integrating"</v>
       </c>
       <c r="E45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(44, 2) = "interact"</v>
+        <v>verbTense(44, 2) = "integrate"</v>
       </c>
       <c r="F45" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2175,26 +2191,26 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(44, 1) = "interacting" : verbTense(44, 2) = "interact" : verbTense(44, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(44, 1) = "integrating" : verbTense(44, 2) = "integrate" : verbTense(44, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(45, 1) = "interpreting"</v>
+        <v>verbTense(45, 1) = "interacting"</v>
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(45, 2) = "interpret"</v>
+        <v>verbTense(45, 2) = "interact"</v>
       </c>
       <c r="F46" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2202,26 +2218,26 @@
       </c>
       <c r="G46" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(45, 1) = "interpreting" : verbTense(45, 2) = "interpret" : verbTense(45, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(45, 1) = "interacting" : verbTense(45, 2) = "interact" : verbTense(45, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(46, 1) = "leading"</v>
+        <v>verbTense(46, 1) = "interpreting"</v>
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(46, 2) = "lead"</v>
+        <v>verbTense(46, 2) = "interpret"</v>
       </c>
       <c r="F47" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2229,53 +2245,53 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(46, 1) = "leading" : verbTense(46, 2) = "lead" : verbTense(46, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(46, 1) = "interpreting" : verbTense(46, 2) = "interpret" : verbTense(46, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(47, 1) = "leveraging"</v>
+        <v>verbTense(47, 1) = "leading"</v>
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(47, 2) = "leverage"</v>
+        <v>verbTense(47, 2) = "lead"</v>
       </c>
       <c r="F48" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(47, 3) = "N"</v>
+        <v>verbTense(47, 3) = "Y"</v>
       </c>
       <c r="G48" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(47, 1) = "leveraging" : verbTense(47, 2) = "leverage" : verbTense(47, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(47, 1) = "leading" : verbTense(47, 2) = "lead" : verbTense(47, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(48, 1) = "liaising"</v>
+        <v>verbTense(48, 1) = "leveraging"</v>
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(48, 2) = "liaise"</v>
+        <v>verbTense(48, 2) = "leverage"</v>
       </c>
       <c r="F49" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2283,26 +2299,26 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(48, 1) = "liaising" : verbTense(48, 2) = "liaise" : verbTense(48, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(48, 1) = "leveraging" : verbTense(48, 2) = "leverage" : verbTense(48, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(49, 1) = "looking"</v>
+        <v>verbTense(49, 1) = "liaising"</v>
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(49, 2) = "look"</v>
+        <v>verbTense(49, 2) = "liaise"</v>
       </c>
       <c r="F50" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2310,26 +2326,26 @@
       </c>
       <c r="G50" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(49, 1) = "looking" : verbTense(49, 2) = "look" : verbTense(49, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(49, 1) = "liaising" : verbTense(49, 2) = "liaise" : verbTense(49, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(50, 1) = "making"</v>
+        <v>verbTense(50, 1) = "looking"</v>
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(50, 2) = "make"</v>
+        <v>verbTense(50, 2) = "look"</v>
       </c>
       <c r="F51" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2337,53 +2353,53 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(50, 1) = "making" : verbTense(50, 2) = "make" : verbTense(50, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(50, 1) = "looking" : verbTense(50, 2) = "look" : verbTense(50, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D52" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(51, 1) = "managing"</v>
+        <v>verbTense(51, 1) = "making"</v>
       </c>
       <c r="E52" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(51, 2) = "manage"</v>
+        <v>verbTense(51, 2) = "make"</v>
       </c>
       <c r="F52" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>verbTense(51, 3) = "N"</v>
+        <v>verbTense(51, 3) = "Y"</v>
       </c>
       <c r="G52" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(51, 1) = "managing" : verbTense(51, 2) = "manage" : verbTense(51, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(51, 1) = "making" : verbTense(51, 2) = "make" : verbTense(51, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(52, 1) = "mentoring"</v>
+        <v>verbTense(52, 1) = "managing"</v>
       </c>
       <c r="E53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(52, 2) = "mentor"</v>
+        <v>verbTense(52, 2) = "manage"</v>
       </c>
       <c r="F53" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2391,26 +2407,26 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(52, 1) = "mentoring" : verbTense(52, 2) = "mentor" : verbTense(52, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(52, 1) = "managing" : verbTense(52, 2) = "manage" : verbTense(52, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(53, 1) = "migrating"</v>
+        <v>verbTense(53, 1) = "mentoring"</v>
       </c>
       <c r="E54" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(53, 2) = "migrate"</v>
+        <v>verbTense(53, 2) = "mentor"</v>
       </c>
       <c r="F54" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2418,26 +2434,26 @@
       </c>
       <c r="G54" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(53, 1) = "migrating" : verbTense(53, 2) = "migrate" : verbTense(53, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(53, 1) = "mentoring" : verbTense(53, 2) = "mentor" : verbTense(53, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(54, 1) = "modeling"</v>
+        <v>verbTense(54, 1) = "migrating"</v>
       </c>
       <c r="E55" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(54, 2) = "model"</v>
+        <v>verbTense(54, 2) = "migrate"</v>
       </c>
       <c r="F55" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2445,26 +2461,26 @@
       </c>
       <c r="G55" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(54, 1) = "modeling" : verbTense(54, 2) = "model" : verbTense(54, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(54, 1) = "migrating" : verbTense(54, 2) = "migrate" : verbTense(54, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(55, 1) = "monitoring"</v>
+        <v>verbTense(55, 1) = "modeling"</v>
       </c>
       <c r="E56" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(55, 2) = "monitor"</v>
+        <v>verbTense(55, 2) = "model"</v>
       </c>
       <c r="F56" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2472,26 +2488,26 @@
       </c>
       <c r="G56" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(55, 1) = "monitoring" : verbTense(55, 2) = "monitor" : verbTense(55, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(55, 1) = "modeling" : verbTense(55, 2) = "model" : verbTense(55, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(56, 1) = "organizing"</v>
+        <v>verbTense(56, 1) = "monitoring"</v>
       </c>
       <c r="E57" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(56, 2) = "organize"</v>
+        <v>verbTense(56, 2) = "monitor"</v>
       </c>
       <c r="F57" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2499,26 +2515,26 @@
       </c>
       <c r="G57" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(56, 1) = "organizing" : verbTense(56, 2) = "organize" : verbTense(56, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(56, 1) = "monitoring" : verbTense(56, 2) = "monitor" : verbTense(56, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(57, 1) = "overseeing"</v>
+        <v>verbTense(57, 1) = "organizing"</v>
       </c>
       <c r="E58" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(57, 2) = "oversee"</v>
+        <v>verbTense(57, 2) = "organize"</v>
       </c>
       <c r="F58" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2526,26 +2542,26 @@
       </c>
       <c r="G58" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(57, 1) = "overseeing" : verbTense(57, 2) = "oversee" : verbTense(57, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(57, 1) = "organizing" : verbTense(57, 2) = "organize" : verbTense(57, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(58, 1) = "participating"</v>
+        <v>verbTense(58, 1) = "overseeing"</v>
       </c>
       <c r="E59" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(58, 2) = "participate"</v>
+        <v>verbTense(58, 2) = "oversee"</v>
       </c>
       <c r="F59" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2553,26 +2569,26 @@
       </c>
       <c r="G59" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(58, 1) = "participating" : verbTense(58, 2) = "participate" : verbTense(58, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(58, 1) = "overseeing" : verbTense(58, 2) = "oversee" : verbTense(58, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(59, 1) = "patching"</v>
+        <v>verbTense(59, 1) = "participating"</v>
       </c>
       <c r="E60" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(59, 2) = "patch"</v>
+        <v>verbTense(59, 2) = "participate"</v>
       </c>
       <c r="F60" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2580,26 +2596,26 @@
       </c>
       <c r="G60" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(59, 1) = "patching" : verbTense(59, 2) = "patch" : verbTense(59, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(59, 1) = "participating" : verbTense(59, 2) = "participate" : verbTense(59, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(60, 1) = "performing"</v>
+        <v>verbTense(60, 1) = "patching"</v>
       </c>
       <c r="E61" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(60, 2) = "perform"</v>
+        <v>verbTense(60, 2) = "patch"</v>
       </c>
       <c r="F61" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2607,26 +2623,26 @@
       </c>
       <c r="G61" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(60, 1) = "performing" : verbTense(60, 2) = "perform" : verbTense(60, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(60, 1) = "patching" : verbTense(60, 2) = "patch" : verbTense(60, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(61, 1) = "playing"</v>
+        <v>verbTense(61, 1) = "performing"</v>
       </c>
       <c r="E62" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(61, 2) = "play"</v>
+        <v>verbTense(61, 2) = "perform"</v>
       </c>
       <c r="F62" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2634,26 +2650,26 @@
       </c>
       <c r="G62" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(61, 1) = "playing" : verbTense(61, 2) = "play" : verbTense(61, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(61, 1) = "performing" : verbTense(61, 2) = "perform" : verbTense(61, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(62, 1) = "preparing"</v>
+        <v>verbTense(62, 1) = "playing"</v>
       </c>
       <c r="E63" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(62, 2) = "prepare"</v>
+        <v>verbTense(62, 2) = "play"</v>
       </c>
       <c r="F63" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2661,26 +2677,26 @@
       </c>
       <c r="G63" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(62, 1) = "preparing" : verbTense(62, 2) = "prepare" : verbTense(62, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(62, 1) = "playing" : verbTense(62, 2) = "play" : verbTense(62, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(63, 1) = "presenting"</v>
+        <v>verbTense(63, 1) = "preparing"</v>
       </c>
       <c r="E64" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(63, 2) = "present"</v>
+        <v>verbTense(63, 2) = "prepare"</v>
       </c>
       <c r="F64" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2688,26 +2704,26 @@
       </c>
       <c r="G64" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(63, 1) = "presenting" : verbTense(63, 2) = "present" : verbTense(63, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(63, 1) = "preparing" : verbTense(63, 2) = "prepare" : verbTense(63, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>verbTense(64, 1) = "prioritizing"</v>
+        <v>verbTense(64, 1) = "presenting"</v>
       </c>
       <c r="E65" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>verbTense(64, 2) = "prioritize"</v>
+        <v>verbTense(64, 2) = "present"</v>
       </c>
       <c r="F65" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2715,80 +2731,80 @@
       </c>
       <c r="G65" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>verbTense(64, 1) = "prioritizing" : verbTense(64, 2) = "prioritize" : verbTense(64, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(64, 1) = "presenting" : verbTense(64, 2) = "present" : verbTense(64, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>verbTense(65, 1) = "prioritizing"</v>
+      </c>
+      <c r="E66" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>verbTense(65, 2) = "prioritize"</v>
+      </c>
+      <c r="F66" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>verbTense(65, 3) = "N"</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>verbTense(65, 1) = "prioritizing" : verbTense(65, 2) = "prioritize" : verbTense(65, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="3" t="str">
-        <f t="shared" ref="D66:D85" si="8">"verbTense(" &amp; ROW(A66)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A66</f>
-        <v>verbTense(65, 1) = "prototyping"</v>
-      </c>
-      <c r="E66" s="3" t="str">
-        <f t="shared" ref="E66:E85" si="9">"verbTense(" &amp; ROW(A66)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B66</f>
-        <v>verbTense(65, 2) = "prototype"</v>
-      </c>
-      <c r="F66" s="3" t="str">
-        <f t="shared" ref="F66:F84" si="10">"verbTense(" &amp; ROW(A66)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C66</f>
-        <v>verbTense(65, 3) = "N"</v>
-      </c>
-      <c r="G66" s="3" t="str">
-        <f t="shared" ref="G66:G84" si="11" xml:space="preserve"> D66 &amp; " : " &amp; E66 &amp; " : " &amp; F66</f>
-        <v>verbTense(65, 1) = "prototyping" : verbTense(65, 2) = "prototype" : verbTense(65, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="C67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3" t="str">
+        <f t="shared" ref="D67:D87" si="8">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A67</f>
+        <v>verbTense(66, 1) = "prototyping"</v>
+      </c>
+      <c r="E67" s="3" t="str">
+        <f t="shared" ref="E67:E87" si="9">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B67</f>
+        <v>verbTense(66, 2) = "prototype"</v>
+      </c>
+      <c r="F67" s="3" t="str">
+        <f t="shared" ref="F67:F86" si="10">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C67</f>
+        <v>verbTense(66, 3) = "N"</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" ref="G67:G86" si="11" xml:space="preserve"> D67 &amp; " : " &amp; E67 &amp; " : " &amp; F67</f>
+        <v>verbTense(66, 1) = "prototyping" : verbTense(66, 2) = "prototype" : verbTense(66, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(66, 1) = "providing"</v>
-      </c>
-      <c r="E67" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(66, 2) = "provide"</v>
-      </c>
-      <c r="F67" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>verbTense(66, 3) = "N"</v>
-      </c>
-      <c r="G67" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(66, 1) = "providing" : verbTense(66, 2) = "provide" : verbTense(66, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(67, 1) = "reporting"</v>
+        <v>verbTense(67, 1) = "providing"</v>
       </c>
       <c r="E68" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(67, 2) = "report"</v>
+        <v>verbTense(67, 2) = "provide"</v>
       </c>
       <c r="F68" s="3" t="str">
         <f t="shared" si="10"/>
@@ -2796,26 +2812,26 @@
       </c>
       <c r="G68" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(67, 1) = "reporting" : verbTense(67, 2) = "report" : verbTense(67, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(67, 1) = "providing" : verbTense(67, 2) = "provide" : verbTense(67, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(68, 1) = "representing"</v>
+        <v>verbTense(68, 1) = "reporting"</v>
       </c>
       <c r="E69" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(68, 2) = "represent"</v>
+        <v>verbTense(68, 2) = "report"</v>
       </c>
       <c r="F69" s="3" t="str">
         <f t="shared" si="10"/>
@@ -2823,26 +2839,26 @@
       </c>
       <c r="G69" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(68, 1) = "representing" : verbTense(68, 2) = "represent" : verbTense(68, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(68, 1) = "reporting" : verbTense(68, 2) = "report" : verbTense(68, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(69, 1) = "researching"</v>
+        <v>verbTense(69, 1) = "representing"</v>
       </c>
       <c r="E70" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(69, 2) = "research"</v>
+        <v>verbTense(69, 2) = "represent"</v>
       </c>
       <c r="F70" s="3" t="str">
         <f t="shared" si="10"/>
@@ -2850,26 +2866,26 @@
       </c>
       <c r="G70" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(69, 1) = "researching" : verbTense(69, 2) = "research" : verbTense(69, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(69, 1) = "representing" : verbTense(69, 2) = "represent" : verbTense(69, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(70, 1) = "resolving"</v>
+        <v>verbTense(70, 1) = "researching"</v>
       </c>
       <c r="E71" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(70, 2) = "resolve"</v>
+        <v>verbTense(70, 2) = "research"</v>
       </c>
       <c r="F71" s="3" t="str">
         <f t="shared" si="10"/>
@@ -2877,26 +2893,26 @@
       </c>
       <c r="G71" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(70, 1) = "resolving" : verbTense(70, 2) = "resolve" : verbTense(70, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(70, 1) = "researching" : verbTense(70, 2) = "research" : verbTense(70, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(71, 1) = "securing"</v>
+        <v>verbTense(71, 1) = "resolving"</v>
       </c>
       <c r="E72" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(71, 2) = "secure"</v>
+        <v>verbTense(71, 2) = "resolve"</v>
       </c>
       <c r="F72" s="3" t="str">
         <f t="shared" si="10"/>
@@ -2904,26 +2920,26 @@
       </c>
       <c r="G72" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(71, 1) = "securing" : verbTense(71, 2) = "secure" : verbTense(71, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(71, 1) = "resolving" : verbTense(71, 2) = "resolve" : verbTense(71, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(72, 1) = "setting"</v>
+        <v>verbTense(72, 1) = "securing"</v>
       </c>
       <c r="E73" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(72, 2) = "set"</v>
+        <v>verbTense(72, 2) = "secure"</v>
       </c>
       <c r="F73" s="3" t="str">
         <f t="shared" si="10"/>
@@ -2931,26 +2947,26 @@
       </c>
       <c r="G73" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(72, 1) = "setting" : verbTense(72, 2) = "set" : verbTense(72, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(72, 1) = "securing" : verbTense(72, 2) = "secure" : verbTense(72, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(73, 1) = "sharing"</v>
+        <v>verbTense(73, 1) = "setting"</v>
       </c>
       <c r="E74" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(73, 2) = "share"</v>
+        <v>verbTense(73, 2) = "set"</v>
       </c>
       <c r="F74" s="3" t="str">
         <f t="shared" si="10"/>
@@ -2958,26 +2974,26 @@
       </c>
       <c r="G74" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(73, 1) = "sharing" : verbTense(73, 2) = "share" : verbTense(73, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(73, 1) = "setting" : verbTense(73, 2) = "set" : verbTense(73, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(74, 1) = "tracking"</v>
+        <v>verbTense(74, 1) = "sharing"</v>
       </c>
       <c r="E75" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(74, 2) = "track"</v>
+        <v>verbTense(74, 2) = "share"</v>
       </c>
       <c r="F75" s="3" t="str">
         <f t="shared" si="10"/>
@@ -2985,26 +3001,26 @@
       </c>
       <c r="G75" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(74, 1) = "tracking" : verbTense(74, 2) = "track" : verbTense(74, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(74, 1) = "sharing" : verbTense(74, 2) = "share" : verbTense(74, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(75, 1) = "translating"</v>
+        <v>verbTense(75, 1) = "solving"</v>
       </c>
       <c r="E76" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(75, 2) = "translate"</v>
+        <v>verbTense(75, 2) = "solve"</v>
       </c>
       <c r="F76" s="3" t="str">
         <f t="shared" si="10"/>
@@ -3012,26 +3028,26 @@
       </c>
       <c r="G76" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(75, 1) = "translating" : verbTense(75, 2) = "translate" : verbTense(75, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(75, 1) = "solving" : verbTense(75, 2) = "solve" : verbTense(75, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(76, 1) = "troubleshooting"</v>
+        <v>verbTense(76, 1) = "tracking"</v>
       </c>
       <c r="E77" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(76, 2) = "troubleshoot"</v>
+        <v>verbTense(76, 2) = "track"</v>
       </c>
       <c r="F77" s="3" t="str">
         <f t="shared" si="10"/>
@@ -3039,26 +3055,26 @@
       </c>
       <c r="G77" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(76, 1) = "troubleshooting" : verbTense(76, 2) = "troubleshoot" : verbTense(76, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(76, 1) = "tracking" : verbTense(76, 2) = "track" : verbTense(76, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(77, 1) = "understanding"</v>
+        <v>verbTense(77, 1) = "translating"</v>
       </c>
       <c r="E78" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(77, 2) = "understand"</v>
+        <v>verbTense(77, 2) = "translate"</v>
       </c>
       <c r="F78" s="3" t="str">
         <f t="shared" si="10"/>
@@ -3066,26 +3082,26 @@
       </c>
       <c r="G78" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(77, 1) = "understanding" : verbTense(77, 2) = "understand" : verbTense(77, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(77, 1) = "translating" : verbTense(77, 2) = "translate" : verbTense(77, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D79" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(78, 1) = "updating"</v>
+        <v>verbTense(78, 1) = "troubleshooting"</v>
       </c>
       <c r="E79" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(78, 2) = "update"</v>
+        <v>verbTense(78, 2) = "troubleshoot"</v>
       </c>
       <c r="F79" s="3" t="str">
         <f t="shared" si="10"/>
@@ -3093,53 +3109,53 @@
       </c>
       <c r="G79" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(78, 1) = "updating" : verbTense(78, 2) = "update" : verbTense(78, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(78, 1) = "troubleshooting" : verbTense(78, 2) = "troubleshoot" : verbTense(78, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D80" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(79, 1) = "uploading"</v>
+        <v>verbTense(79, 1) = "understanding"</v>
       </c>
       <c r="E80" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(79, 2) = "upload"</v>
+        <v>verbTense(79, 2) = "understand"</v>
       </c>
       <c r="F80" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>verbTense(79, 3) = "N"</v>
+        <v>verbTense(79, 3) = "Y"</v>
       </c>
       <c r="G80" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(79, 1) = "uploading" : verbTense(79, 2) = "upload" : verbTense(79, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(79, 1) = "understanding" : verbTense(79, 2) = "understand" : verbTense(79, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(80, 1) = "using"</v>
+        <v>verbTense(80, 1) = "updating"</v>
       </c>
       <c r="E81" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(80, 2) = "use"</v>
+        <v>verbTense(80, 2) = "update"</v>
       </c>
       <c r="F81" s="3" t="str">
         <f t="shared" si="10"/>
@@ -3147,26 +3163,26 @@
       </c>
       <c r="G81" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(80, 1) = "using" : verbTense(80, 2) = "use" : verbTense(80, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(80, 1) = "updating" : verbTense(80, 2) = "update" : verbTense(80, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(81, 1) = "validating"</v>
+        <v>verbTense(81, 1) = "uploading"</v>
       </c>
       <c r="E82" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(81, 2) = "validate"</v>
+        <v>verbTense(81, 2) = "upload"</v>
       </c>
       <c r="F82" s="3" t="str">
         <f t="shared" si="10"/>
@@ -3174,26 +3190,26 @@
       </c>
       <c r="G82" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(81, 1) = "validating" : verbTense(81, 2) = "validate" : verbTense(81, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(81, 1) = "uploading" : verbTense(81, 2) = "upload" : verbTense(81, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D83" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(82, 1) = "working"</v>
+        <v>verbTense(82, 1) = "using"</v>
       </c>
       <c r="E83" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(82, 2) = "work"</v>
+        <v>verbTense(82, 2) = "use"</v>
       </c>
       <c r="F83" s="3" t="str">
         <f t="shared" si="10"/>
@@ -3201,26 +3217,26 @@
       </c>
       <c r="G83" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(82, 1) = "working" : verbTense(82, 2) = "work" : verbTense(82, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+        <v>verbTense(82, 1) = "using" : verbTense(82, 2) = "use" : verbTense(82, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(83, 1) = "writing"</v>
+        <v>verbTense(83, 1) = "validating"</v>
       </c>
       <c r="E84" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(83, 2) = "write"</v>
+        <v>verbTense(83, 2) = "validate"</v>
       </c>
       <c r="F84" s="3" t="str">
         <f t="shared" si="10"/>
@@ -3228,39 +3244,93 @@
       </c>
       <c r="G84" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>verbTense(83, 1) = "writing" : verbTense(83, 2) = "write" : verbTense(83, 3) = "N"</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+        <v>verbTense(83, 1) = "validating" : verbTense(83, 2) = "validate" : verbTense(83, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>verbTense(84, 1) = "working"</v>
+      </c>
+      <c r="E85" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(84, 2) = "work"</v>
+      </c>
+      <c r="F85" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>verbTense(84, 3) = "N"</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>verbTense(84, 1) = "working" : verbTense(84, 2) = "work" : verbTense(84, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>verbTense(85, 1) = "writing"</v>
+      </c>
+      <c r="E86" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>verbTense(85, 2) = "write"</v>
+      </c>
+      <c r="F86" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>verbTense(85, 3) = "Y"</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>verbTense(85, 1) = "writing" : verbTense(85, 2) = "write" : verbTense(85, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="6" t="str">
+      <c r="C87" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>verbTense(84, 1) = ""</v>
-      </c>
-      <c r="E85" s="6" t="str">
+        <v>verbTense(86, 1) = ""</v>
+      </c>
+      <c r="E87" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>verbTense(84, 2) = ""</v>
-      </c>
-      <c r="F85" s="6" t="str">
-        <f t="shared" ref="F85" si="12">"verbTense(" &amp; ROW(A85)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C85</f>
-        <v>verbTense(84, 3) = "N"</v>
-      </c>
-      <c r="G85" s="6" t="str">
-        <f t="shared" ref="G85" si="13" xml:space="preserve"> D85 &amp; " : " &amp; E85 &amp; " : " &amp; F85</f>
-        <v>verbTense(84, 1) = "" : verbTense(84, 2) = "" : verbTense(84, 3) = "N"</v>
+        <v>verbTense(86, 2) = ""</v>
+      </c>
+      <c r="F87" s="6" t="str">
+        <f t="shared" ref="F87" si="12">"verbTense(" &amp; ROW(A87)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C87</f>
+        <v>verbTense(86, 3) = "N"</v>
+      </c>
+      <c r="G87" s="6" t="str">
+        <f t="shared" ref="G87" si="13" xml:space="preserve"> D87 &amp; " : " &amp; E87 &amp; " : " &amp; F87</f>
+        <v>verbTense(86, 1) = "" : verbTense(86, 2) = "" : verbTense(86, 3) = "N"</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B84">
-    <sortCondition ref="A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B86">
+    <sortCondition ref="A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VerbTense2 Repo.xlsx
+++ b/VerbTense2 Repo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PaperlessBeta\To Do\Ellen\Macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TECNYFS1\Evaluations\PaperlessBeta\To Do\Ellen\Macros-Ideas\Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7C873-CFD9-4A00-85F0-F705DEFCE53D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055B4BE6-19EF-40D5-8F3A-AEC30281B149}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25275" windowHeight="7920" xr2:uid="{6ADFBC0E-4E87-594A-A376-4135510BA773}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{6ADFBC0E-4E87-594A-A376-4135510BA773}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="207">
   <si>
     <t>Verb</t>
   </si>
@@ -285,9 +285,6 @@
     <t>"uploading"</t>
   </si>
   <si>
-    <t>"using"</t>
-  </si>
-  <si>
     <t>"validating"</t>
   </si>
   <si>
@@ -534,9 +531,6 @@
     <t>"upload"</t>
   </si>
   <si>
-    <t>"use"</t>
-  </si>
-  <si>
     <t>"validate"</t>
   </si>
   <si>
@@ -562,13 +556,109 @@
   </si>
   <si>
     <t>"deploy"</t>
+  </si>
+  <si>
+    <t>"upgrading"</t>
+  </si>
+  <si>
+    <t>"upgrade"</t>
+  </si>
+  <si>
+    <t>"suggest"</t>
+  </si>
+  <si>
+    <t>"suggesting"</t>
+  </si>
+  <si>
+    <t>"giving"</t>
+  </si>
+  <si>
+    <t>"give"</t>
+  </si>
+  <si>
+    <t>"defining"</t>
+  </si>
+  <si>
+    <t>"define"</t>
+  </si>
+  <si>
+    <t>"supervising"</t>
+  </si>
+  <si>
+    <t>"supervise"</t>
+  </si>
+  <si>
+    <t>"guide"</t>
+  </si>
+  <si>
+    <t>"reviewing"</t>
+  </si>
+  <si>
+    <t>"review"</t>
+  </si>
+  <si>
+    <t>"being"</t>
+  </si>
+  <si>
+    <t>"be"</t>
+  </si>
+  <si>
+    <t>"enable"</t>
+  </si>
+  <si>
+    <t>"enabling"</t>
+  </si>
+  <si>
+    <t>"guiding"</t>
+  </si>
+  <si>
+    <t>"publishing"</t>
+  </si>
+  <si>
+    <t>"publish"</t>
+  </si>
+  <si>
+    <t>"arranging"</t>
+  </si>
+  <si>
+    <t>"arrange"</t>
+  </si>
+  <si>
+    <t>"archtecting"</t>
+  </si>
+  <si>
+    <t>"architect"</t>
+  </si>
+  <si>
+    <t>"planning"</t>
+  </si>
+  <si>
+    <t>"plan"</t>
+  </si>
+  <si>
+    <t>"taking"</t>
+  </si>
+  <si>
+    <t>"take"</t>
+  </si>
+  <si>
+    <t>"executing"</t>
+  </si>
+  <si>
+    <t>"execute"</t>
+  </si>
+  <si>
+    <t>"fixing"</t>
+  </si>
+  <si>
+    <t>"fix"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -608,8 +698,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +724,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -637,12 +739,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,10 +759,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -972,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783362E1-9BAB-3045-BCB6-55656818966D}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G87"/>
+    <sheetView tabSelected="1" topLeftCell="C76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1011,25 +1118,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D34" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A2</f>
+        <f t="shared" ref="D2:D39" si="0">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A2</f>
         <v>verbTense(1, 1) = "achieving"</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E34" si="1">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
+        <f t="shared" ref="E2:E39" si="1">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B2</f>
         <v>verbTense(1, 2) = "achieve"</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f t="shared" ref="F2:F34" si="2">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C2</f>
+        <f t="shared" ref="F2:F39" si="2">"verbTense(" &amp; ROW(A2)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C2</f>
         <v>verbTense(1, 3) = "N"</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G34" si="3" xml:space="preserve"> D2 &amp; " : " &amp; E2 &amp; " : " &amp; F2</f>
+        <f t="shared" ref="G2:G39" si="3" xml:space="preserve"> D2 &amp; " : " &amp; E2 &amp; " : " &amp; F2</f>
         <v>verbTense(1, 1) = "achieving" : verbTense(1, 2) = "achieve" : verbTense(1, 3) = "N"</v>
       </c>
     </row>
@@ -1038,7 +1145,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1065,7 +1172,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -1092,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -1119,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -1143,21 +1250,21 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(6, 1) = "assisting"</v>
+        <v>verbTense(6, 1) = "archtecting"</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(6, 2) = "assist"</v>
+        <v>verbTense(6, 2) = "architect"</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1165,26 +1272,26 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(6, 1) = "assisting" : verbTense(6, 2) = "assist" : verbTense(6, 3) = "N"</v>
+        <v>verbTense(6, 1) = "archtecting" : verbTense(6, 2) = "architect" : verbTense(6, 3) = "N"</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(7, 1) = "attending"</v>
+        <v>verbTense(7, 1) = "arranging"</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(7, 2) = "attend"</v>
+        <v>verbTense(7, 2) = "arrange"</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1192,26 +1299,26 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(7, 1) = "attending" : verbTense(7, 2) = "attend" : verbTense(7, 3) = "N"</v>
+        <v>verbTense(7, 1) = "arranging" : verbTense(7, 2) = "arrange" : verbTense(7, 3) = "N"</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(8, 1) = "automating"</v>
+        <v>verbTense(8, 1) = "assisting"</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(8, 2) = "automate"</v>
+        <v>verbTense(8, 2) = "assist"</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1219,26 +1326,26 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(8, 1) = "automating" : verbTense(8, 2) = "automate" : verbTense(8, 3) = "N"</v>
+        <v>verbTense(8, 1) = "assisting" : verbTense(8, 2) = "assist" : verbTense(8, 3) = "N"</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(9, 1) = "building"</v>
+        <v>verbTense(9, 1) = "attending"</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(9, 2) = "build"</v>
+        <v>verbTense(9, 2) = "attend"</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1246,26 +1353,26 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(9, 1) = "building" : verbTense(9, 2) = "build" : verbTense(9, 3) = "N"</v>
+        <v>verbTense(9, 1) = "attending" : verbTense(9, 2) = "attend" : verbTense(9, 3) = "N"</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(10, 1) = "calculating"</v>
+        <v>verbTense(10, 1) = "automating"</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(10, 2) = "calculate"</v>
+        <v>verbTense(10, 2) = "automate"</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1273,53 +1380,53 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(10, 1) = "calculating" : verbTense(10, 2) = "calculate" : verbTense(10, 3) = "N"</v>
+        <v>verbTense(10, 1) = "automating" : verbTense(10, 2) = "automate" : verbTense(10, 3) = "N"</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(11, 1) = "capturing"</v>
+        <v>verbTense(11, 1) = "being"</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(11, 2) = "capture"</v>
+        <v>verbTense(11, 2) = "be"</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F12" si="4">"verbTense(" &amp; ROW(A12)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C12</f>
         <v>verbTense(11, 3) = "N"</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(11, 1) = "capturing" : verbTense(11, 2) = "capture" : verbTense(11, 3) = "N"</v>
+        <f t="shared" ref="G12" si="5" xml:space="preserve"> D12 &amp; " : " &amp; E12 &amp; " : " &amp; F12</f>
+        <v>verbTense(11, 1) = "being" : verbTense(11, 2) = "be" : verbTense(11, 3) = "N"</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(12, 1) = "checking"</v>
+        <v>verbTense(12, 1) = "building"</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(12, 2) = "check"</v>
+        <v>verbTense(12, 2) = "build"</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1327,26 +1434,26 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(12, 1) = "checking" : verbTense(12, 2) = "check" : verbTense(12, 3) = "N"</v>
+        <v>verbTense(12, 1) = "building" : verbTense(12, 2) = "build" : verbTense(12, 3) = "N"</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(13, 1) = "collaborating"</v>
+        <v>verbTense(13, 1) = "calculating"</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(13, 2) = "collaborate"</v>
+        <v>verbTense(13, 2) = "calculate"</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1354,26 +1461,26 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(13, 1) = "collaborating" : verbTense(13, 2) = "collaborate" : verbTense(13, 3) = "N"</v>
+        <v>verbTense(13, 1) = "calculating" : verbTense(13, 2) = "calculate" : verbTense(13, 3) = "N"</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(14, 1) = "coming"</v>
+        <v>verbTense(14, 1) = "capturing"</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(14, 2) = "come"</v>
+        <v>verbTense(14, 2) = "capture"</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1381,26 +1488,26 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(14, 1) = "coming" : verbTense(14, 2) = "come" : verbTense(14, 3) = "N"</v>
+        <v>verbTense(14, 1) = "capturing" : verbTense(14, 2) = "capture" : verbTense(14, 3) = "N"</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(15, 1) = "communicating"</v>
+        <v>verbTense(15, 1) = "checking"</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(15, 2) = "communicate"</v>
+        <v>verbTense(15, 2) = "check"</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1408,53 +1515,53 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(15, 1) = "communicating" : verbTense(15, 2) = "communicate" : verbTense(15, 3) = "N"</v>
+        <v>verbTense(15, 1) = "checking" : verbTense(15, 2) = "check" : verbTense(15, 3) = "N"</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(16, 1) = "conducting"</v>
+        <v>verbTense(16, 1) = "collaborating"</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(16, 2) = "conduct"</v>
+        <v>verbTense(16, 2) = "collaborate"</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(16, 3) = "Y"</v>
+        <v>verbTense(16, 3) = "N"</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(16, 1) = "conducting" : verbTense(16, 2) = "conduct" : verbTense(16, 3) = "Y"</v>
+        <v>verbTense(16, 1) = "collaborating" : verbTense(16, 2) = "collaborate" : verbTense(16, 3) = "N"</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(17, 1) = "configuring"</v>
+        <v>verbTense(17, 1) = "coming"</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(17, 2) = "configure"</v>
+        <v>verbTense(17, 2) = "come"</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1462,26 +1569,26 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(17, 1) = "configuring" : verbTense(17, 2) = "configure" : verbTense(17, 3) = "N"</v>
+        <v>verbTense(17, 1) = "coming" : verbTense(17, 2) = "come" : verbTense(17, 3) = "N"</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(18, 1) = "coordinating"</v>
+        <v>verbTense(18, 1) = "communicating"</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(18, 2) = "coordinate"</v>
+        <v>verbTense(18, 2) = "communicate"</v>
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1489,53 +1596,53 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(18, 1) = "coordinating" : verbTense(18, 2) = "coordinate" : verbTense(18, 3) = "N"</v>
+        <v>verbTense(18, 1) = "communicating" : verbTense(18, 2) = "communicate" : verbTense(18, 3) = "N"</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(19, 1) = "creating"</v>
+        <v>verbTense(19, 1) = "conducting"</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(19, 2) = "create"</v>
+        <v>verbTense(19, 2) = "conduct"</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(19, 3) = "N"</v>
+        <v>verbTense(19, 3) = "Y"</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(19, 1) = "creating" : verbTense(19, 2) = "create" : verbTense(19, 3) = "N"</v>
+        <v>verbTense(19, 1) = "conducting" : verbTense(19, 2) = "conduct" : verbTense(19, 3) = "Y"</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(20, 1) = "designing"</v>
+        <v>verbTense(20, 1) = "configuring"</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(20, 2) = "design"</v>
+        <v>verbTense(20, 2) = "configure"</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1543,26 +1650,26 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(20, 1) = "designing" : verbTense(20, 2) = "design" : verbTense(20, 3) = "N"</v>
+        <v>verbTense(20, 1) = "configuring" : verbTense(20, 2) = "configure" : verbTense(20, 3) = "N"</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(21, 1) = "deploying"</v>
+        <v>verbTense(21, 1) = "coordinating"</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(21, 2) = "deploy"</v>
+        <v>verbTense(21, 2) = "coordinate"</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1570,80 +1677,80 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(21, 1) = "deploying" : verbTense(21, 2) = "deploy" : verbTense(21, 3) = "N"</v>
+        <v>verbTense(21, 1) = "coordinating" : verbTense(21, 2) = "coordinate" : verbTense(21, 3) = "N"</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(22, 1) = "determining"</v>
+        <v>verbTense(22, 1) = "creating"</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(22, 2) = "determine"</v>
+        <v>verbTense(22, 2) = "create"</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(22, 3) = "Y"</v>
+        <v>verbTense(22, 3) = "N"</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(22, 1) = "determining" : verbTense(22, 2) = "determine" : verbTense(22, 3) = "Y"</v>
+        <v>verbTense(22, 1) = "creating" : verbTense(22, 2) = "create" : verbTense(22, 3) = "N"</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(23, 1) = "developing"</v>
+        <v>verbTense(23, 1) = "defining"</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(23, 2) = "develop"</v>
+        <v>verbTense(23, 2) = "define"</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F24" si="6">"verbTense(" &amp; ROW(A24)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C24</f>
         <v>verbTense(23, 3) = "N"</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>verbTense(23, 1) = "developing" : verbTense(23, 2) = "develop" : verbTense(23, 3) = "N"</v>
+        <f t="shared" ref="G24" si="7" xml:space="preserve"> D24 &amp; " : " &amp; E24 &amp; " : " &amp; F24</f>
+        <v>verbTense(23, 1) = "defining" : verbTense(23, 2) = "define" : verbTense(23, 3) = "N"</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(24, 1) = "discussing"</v>
+        <v>verbTense(24, 1) = "designing"</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(24, 2) = "discuss"</v>
+        <v>verbTense(24, 2) = "design"</v>
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1651,26 +1758,26 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(24, 1) = "discussing" : verbTense(24, 2) = "discuss" : verbTense(24, 3) = "N"</v>
+        <v>verbTense(24, 1) = "designing" : verbTense(24, 2) = "design" : verbTense(24, 3) = "N"</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(25, 1) = "documenting"</v>
+        <v>verbTense(25, 1) = "deploying"</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(25, 2) = "document"</v>
+        <v>verbTense(25, 2) = "deploy"</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1678,53 +1785,53 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(25, 1) = "documenting" : verbTense(25, 2) = "document" : verbTense(25, 3) = "N"</v>
+        <v>verbTense(25, 1) = "deploying" : verbTense(25, 2) = "deploy" : verbTense(25, 3) = "N"</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(26, 1) = "drafting"</v>
+        <v>verbTense(26, 1) = "determining"</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(26, 2) = "draft"</v>
+        <v>verbTense(26, 2) = "determine"</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(26, 3) = "N"</v>
+        <v>verbTense(26, 3) = "Y"</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(26, 1) = "drafting" : verbTense(26, 2) = "draft" : verbTense(26, 3) = "N"</v>
+        <v>verbTense(26, 1) = "determining" : verbTense(26, 2) = "determine" : verbTense(26, 3) = "Y"</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(27, 1) = "driving"</v>
+        <v>verbTense(27, 1) = "developing"</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(27, 2) = "drive"</v>
+        <v>verbTense(27, 2) = "develop"</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1732,26 +1839,26 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(27, 1) = "driving" : verbTense(27, 2) = "drive" : verbTense(27, 3) = "N"</v>
+        <v>verbTense(27, 1) = "developing" : verbTense(27, 2) = "develop" : verbTense(27, 3) = "N"</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(28, 1) = "engaging"</v>
+        <v>verbTense(28, 1) = "discussing"</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(28, 2) = "engage"</v>
+        <v>verbTense(28, 2) = "discuss"</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1759,26 +1866,26 @@
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(28, 1) = "engaging" : verbTense(28, 2) = "engage" : verbTense(28, 3) = "N"</v>
+        <v>verbTense(28, 1) = "discussing" : verbTense(28, 2) = "discuss" : verbTense(28, 3) = "N"</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(29, 1) = "ensuring"</v>
+        <v>verbTense(29, 1) = "documenting"</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(29, 2) = "ensure"</v>
+        <v>verbTense(29, 2) = "document"</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1786,26 +1893,26 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(29, 1) = "ensuring" : verbTense(29, 2) = "ensure" : verbTense(29, 3) = "N"</v>
+        <v>verbTense(29, 1) = "documenting" : verbTense(29, 2) = "document" : verbTense(29, 3) = "N"</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(30, 1) = "establishing"</v>
+        <v>verbTense(30, 1) = "drafting"</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(30, 2) = "establish"</v>
+        <v>verbTense(30, 2) = "draft"</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1813,26 +1920,26 @@
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(30, 1) = "establishing" : verbTense(30, 2) = "establish" : verbTense(30, 3) = "N"</v>
+        <v>verbTense(30, 1) = "drafting" : verbTense(30, 2) = "draft" : verbTense(30, 3) = "N"</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(31, 1) = "estimating"</v>
+        <v>verbTense(31, 1) = "driving"</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(31, 2) = "estimate"</v>
+        <v>verbTense(31, 2) = "drive"</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1840,53 +1947,53 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(31, 1) = "estimating" : verbTense(31, 2) = "estimate" : verbTense(31, 3) = "N"</v>
+        <v>verbTense(31, 1) = "driving" : verbTense(31, 2) = "drive" : verbTense(31, 3) = "N"</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(32, 1) = "evaluating"</v>
+        <v>verbTense(32, 1) = "engaging"</v>
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(32, 2) = "evaluate"</v>
+        <v>verbTense(32, 2) = "engage"</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>verbTense(32, 3) = "Y"</v>
+        <v>verbTense(32, 3) = "N"</v>
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(32, 1) = "evaluating" : verbTense(32, 2) = "evaluate" : verbTense(32, 3) = "Y"</v>
+        <v>verbTense(32, 1) = "engaging" : verbTense(32, 2) = "engage" : verbTense(32, 3) = "N"</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>verbTense(33, 1) = "finding"</v>
+        <v>verbTense(33, 1) = "ensuring"</v>
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>verbTense(33, 2) = "find"</v>
+        <v>verbTense(33, 2) = "ensure"</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1894,1443 +2001,1848 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>verbTense(33, 1) = "finding" : verbTense(33, 2) = "find" : verbTense(33, 3) = "N"</v>
+        <v>verbTense(33, 1) = "ensuring" : verbTense(33, 2) = "ensure" : verbTense(33, 3) = "N"</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" ref="D35:D66" si="4">"verbTense(" &amp; ROW(A35)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A35</f>
-        <v>verbTense(34, 1) = "focusing"</v>
+        <f t="shared" si="0"/>
+        <v>verbTense(34, 1) = "establishing"</v>
       </c>
       <c r="E35" s="3" t="str">
-        <f t="shared" ref="E35:E66" si="5">"verbTense(" &amp; ROW(A35)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B35</f>
-        <v>verbTense(34, 2) = "focus"</v>
+        <f t="shared" si="1"/>
+        <v>verbTense(34, 2) = "establish"</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" ref="F35:F66" si="6">"verbTense(" &amp; ROW(A35)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C35</f>
-        <v>verbTense(34, 3) = "Y"</v>
+        <f t="shared" si="2"/>
+        <v>verbTense(34, 3) = "N"</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" ref="G35:G66" si="7" xml:space="preserve"> D35 &amp; " : " &amp; E35 &amp; " : " &amp; F35</f>
-        <v>verbTense(34, 1) = "focusing" : verbTense(34, 2) = "focus" : verbTense(34, 3) = "Y"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(34, 1) = "establishing" : verbTense(34, 2) = "establish" : verbTense(34, 3) = "N"</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(35, 1) = "following"</v>
+        <f t="shared" si="0"/>
+        <v>verbTense(35, 1) = "estimating"</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(35, 2) = "follow"</v>
+        <f t="shared" si="1"/>
+        <v>verbTense(35, 2) = "estimate"</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(35, 3) = "Y"</v>
+        <f t="shared" si="2"/>
+        <v>verbTense(35, 3) = "N"</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(35, 1) = "following" : verbTense(35, 2) = "follow" : verbTense(35, 3) = "Y"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(35, 1) = "estimating" : verbTense(35, 2) = "estimate" : verbTense(35, 3) = "N"</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(36, 1) = "forecasting"</v>
+        <f t="shared" si="0"/>
+        <v>verbTense(36, 1) = "enabling"</v>
       </c>
       <c r="E37" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(36, 2) = "forecast"</v>
+        <f t="shared" si="1"/>
+        <v>verbTense(36, 2) = "enable"</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F37:F38" si="8">"verbTense(" &amp; ROW(A37)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C37</f>
         <v>verbTense(36, 3) = "N"</v>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(36, 1) = "forecasting" : verbTense(36, 2) = "forecast" : verbTense(36, 3) = "N"</v>
+        <f t="shared" ref="G37:G38" si="9" xml:space="preserve"> D37 &amp; " : " &amp; E37 &amp; " : " &amp; F37</f>
+        <v>verbTense(36, 1) = "enabling" : verbTense(36, 2) = "enable" : verbTense(36, 3) = "N"</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(37, 1) = "generating"</v>
+        <f t="shared" si="0"/>
+        <v>verbTense(37, 1) = "executing"</v>
       </c>
       <c r="E38" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(37, 2) = "generate"</v>
+        <f t="shared" si="1"/>
+        <v>verbTense(37, 2) = "execute"</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>verbTense(37, 3) = "N"</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(37, 1) = "generating" : verbTense(37, 2) = "generate" : verbTense(37, 3) = "N"</v>
+        <f t="shared" si="9"/>
+        <v>verbTense(37, 1) = "executing" : verbTense(37, 2) = "execute" : verbTense(37, 3) = "N"</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(38, 1) = "getting"</v>
+        <f t="shared" si="0"/>
+        <v>verbTense(38, 1) = "evaluating"</v>
       </c>
       <c r="E39" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(38, 2) = "get"</v>
+        <f t="shared" si="1"/>
+        <v>verbTense(38, 2) = "evaluate"</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(38, 3) = "N"</v>
+        <f t="shared" si="2"/>
+        <v>verbTense(38, 3) = "Y"</v>
       </c>
       <c r="G39" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(38, 1) = "getting" : verbTense(38, 2) = "get" : verbTense(38, 3) = "N"</v>
+        <f t="shared" si="3"/>
+        <v>verbTense(38, 1) = "evaluating" : verbTense(38, 2) = "evaluate" : verbTense(38, 3) = "Y"</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(39, 1) = "handling"</v>
+        <f t="shared" ref="D40:D75" si="10">"verbTense(" &amp; ROW(A40)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A40</f>
+        <v>verbTense(39, 1) = "finding"</v>
       </c>
       <c r="E40" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(39, 2) = "handle"</v>
+        <f t="shared" ref="E40:E75" si="11">"verbTense(" &amp; ROW(A40)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B40</f>
+        <v>verbTense(39, 2) = "find"</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F40:F75" si="12">"verbTense(" &amp; ROW(A40)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C40</f>
         <v>verbTense(39, 3) = "N"</v>
       </c>
       <c r="G40" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(39, 1) = "handling" : verbTense(39, 2) = "handle" : verbTense(39, 3) = "N"</v>
+        <f t="shared" ref="G40:G75" si="13" xml:space="preserve"> D40 &amp; " : " &amp; E40 &amp; " : " &amp; F40</f>
+        <v>verbTense(39, 1) = "finding" : verbTense(39, 2) = "find" : verbTense(39, 3) = "N"</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(40, 1) = "highlighting"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(40, 1) = "fixing"</v>
       </c>
       <c r="E41" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(40, 2) = "highlight"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(40, 2) = "fix"</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(40, 3) = "N"</v>
       </c>
       <c r="G41" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(40, 1) = "highlighting" : verbTense(40, 2) = "highlight" : verbTense(40, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(40, 1) = "fixing" : verbTense(40, 2) = "fix" : verbTense(40, 3) = "N"</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(41, 1) = "identifying"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(41, 1) = "focusing"</v>
       </c>
       <c r="E42" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(41, 2) = "identify"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(41, 2) = "focus"</v>
       </c>
       <c r="F42" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(41, 3) = "N"</v>
+        <f t="shared" si="12"/>
+        <v>verbTense(41, 3) = "Y"</v>
       </c>
       <c r="G42" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(41, 1) = "identifying" : verbTense(41, 2) = "identify" : verbTense(41, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(41, 1) = "focusing" : verbTense(41, 2) = "focus" : verbTense(41, 3) = "Y"</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(42, 1) = "implementing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(42, 1) = "following"</v>
       </c>
       <c r="E43" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(42, 2) = "implement"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(42, 2) = "follow"</v>
       </c>
       <c r="F43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(42, 3) = "Y"</v>
       </c>
       <c r="G43" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(42, 1) = "implementing" : verbTense(42, 2) = "implement" : verbTense(42, 3) = "Y"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(42, 1) = "following" : verbTense(42, 2) = "follow" : verbTense(42, 3) = "Y"</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(43, 1) = "installing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(43, 1) = "forecasting"</v>
       </c>
       <c r="E44" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(43, 2) = "install"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(43, 2) = "forecast"</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(43, 3) = "N"</v>
       </c>
       <c r="G44" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(43, 1) = "installing" : verbTense(43, 2) = "install" : verbTense(43, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(43, 1) = "forecasting" : verbTense(43, 2) = "forecast" : verbTense(43, 3) = "N"</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(44, 1) = "integrating"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(44, 1) = "generating"</v>
       </c>
       <c r="E45" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(44, 2) = "integrate"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(44, 2) = "generate"</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(44, 3) = "N"</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(44, 1) = "integrating" : verbTense(44, 2) = "integrate" : verbTense(44, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(44, 1) = "generating" : verbTense(44, 2) = "generate" : verbTense(44, 3) = "N"</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(45, 1) = "interacting"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(45, 1) = "getting"</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(45, 2) = "interact"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(45, 2) = "get"</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(45, 3) = "N"</v>
       </c>
       <c r="G46" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(45, 1) = "interacting" : verbTense(45, 2) = "interact" : verbTense(45, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(45, 1) = "getting" : verbTense(45, 2) = "get" : verbTense(45, 3) = "N"</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(46, 1) = "interpreting"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(46, 1) = "giving"</v>
       </c>
       <c r="E47" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(46, 2) = "interpret"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(46, 2) = "give"</v>
       </c>
       <c r="F47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F47" si="14">"verbTense(" &amp; ROW(A47)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C47</f>
         <v>verbTense(46, 3) = "N"</v>
       </c>
       <c r="G47" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(46, 1) = "interpreting" : verbTense(46, 2) = "interpret" : verbTense(46, 3) = "N"</v>
+        <f t="shared" ref="G47" si="15" xml:space="preserve"> D47 &amp; " : " &amp; E47 &amp; " : " &amp; F47</f>
+        <v>verbTense(46, 1) = "giving" : verbTense(46, 2) = "give" : verbTense(46, 3) = "N"</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(47, 1) = "leading"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(47, 1) = "guiding"</v>
       </c>
       <c r="E48" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(47, 2) = "lead"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(47, 2) = "guide"</v>
       </c>
       <c r="F48" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(47, 3) = "Y"</v>
+        <f t="shared" ref="F48" si="16">"verbTense(" &amp; ROW(A48)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C48</f>
+        <v>verbTense(47, 3) = "N"</v>
       </c>
       <c r="G48" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(47, 1) = "leading" : verbTense(47, 2) = "lead" : verbTense(47, 3) = "Y"</v>
+        <f t="shared" ref="G48" si="17" xml:space="preserve"> D48 &amp; " : " &amp; E48 &amp; " : " &amp; F48</f>
+        <v>verbTense(47, 1) = "guiding" : verbTense(47, 2) = "guide" : verbTense(47, 3) = "N"</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(48, 1) = "leveraging"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(48, 1) = "handling"</v>
       </c>
       <c r="E49" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(48, 2) = "leverage"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(48, 2) = "handle"</v>
       </c>
       <c r="F49" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(48, 3) = "N"</v>
       </c>
       <c r="G49" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(48, 1) = "leveraging" : verbTense(48, 2) = "leverage" : verbTense(48, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(48, 1) = "handling" : verbTense(48, 2) = "handle" : verbTense(48, 3) = "N"</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(49, 1) = "liaising"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(49, 1) = "highlighting"</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(49, 2) = "liaise"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(49, 2) = "highlight"</v>
       </c>
       <c r="F50" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(49, 3) = "N"</v>
       </c>
       <c r="G50" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(49, 1) = "liaising" : verbTense(49, 2) = "liaise" : verbTense(49, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(49, 1) = "highlighting" : verbTense(49, 2) = "highlight" : verbTense(49, 3) = "N"</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(50, 1) = "looking"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(50, 1) = "identifying"</v>
       </c>
       <c r="E51" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(50, 2) = "look"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(50, 2) = "identify"</v>
       </c>
       <c r="F51" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(50, 3) = "N"</v>
       </c>
       <c r="G51" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(50, 1) = "looking" : verbTense(50, 2) = "look" : verbTense(50, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(50, 1) = "identifying" : verbTense(50, 2) = "identify" : verbTense(50, 3) = "N"</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(51, 1) = "making"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(51, 1) = "implementing"</v>
       </c>
       <c r="E52" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(51, 2) = "make"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(51, 2) = "implement"</v>
       </c>
       <c r="F52" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(51, 3) = "Y"</v>
       </c>
       <c r="G52" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(51, 1) = "making" : verbTense(51, 2) = "make" : verbTense(51, 3) = "Y"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(51, 1) = "implementing" : verbTense(51, 2) = "implement" : verbTense(51, 3) = "Y"</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(52, 1) = "managing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(52, 1) = "installing"</v>
       </c>
       <c r="E53" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(52, 2) = "manage"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(52, 2) = "install"</v>
       </c>
       <c r="F53" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(52, 3) = "N"</v>
       </c>
       <c r="G53" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(52, 1) = "managing" : verbTense(52, 2) = "manage" : verbTense(52, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(52, 1) = "installing" : verbTense(52, 2) = "install" : verbTense(52, 3) = "N"</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(53, 1) = "mentoring"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(53, 1) = "integrating"</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(53, 2) = "mentor"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(53, 2) = "integrate"</v>
       </c>
       <c r="F54" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(53, 3) = "N"</v>
       </c>
       <c r="G54" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(53, 1) = "mentoring" : verbTense(53, 2) = "mentor" : verbTense(53, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(53, 1) = "integrating" : verbTense(53, 2) = "integrate" : verbTense(53, 3) = "N"</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(54, 1) = "migrating"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(54, 1) = "interacting"</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(54, 2) = "migrate"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(54, 2) = "interact"</v>
       </c>
       <c r="F55" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(54, 3) = "N"</v>
       </c>
       <c r="G55" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(54, 1) = "migrating" : verbTense(54, 2) = "migrate" : verbTense(54, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(54, 1) = "interacting" : verbTense(54, 2) = "interact" : verbTense(54, 3) = "N"</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(55, 1) = "modeling"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(55, 1) = "interpreting"</v>
       </c>
       <c r="E56" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(55, 2) = "model"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(55, 2) = "interpret"</v>
       </c>
       <c r="F56" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(55, 3) = "N"</v>
       </c>
       <c r="G56" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(55, 1) = "modeling" : verbTense(55, 2) = "model" : verbTense(55, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(55, 1) = "interpreting" : verbTense(55, 2) = "interpret" : verbTense(55, 3) = "N"</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(56, 1) = "monitoring"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(56, 1) = "leading"</v>
       </c>
       <c r="E57" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(56, 2) = "monitor"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(56, 2) = "lead"</v>
       </c>
       <c r="F57" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(56, 3) = "N"</v>
+        <f t="shared" si="12"/>
+        <v>verbTense(56, 3) = "Y"</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(56, 1) = "monitoring" : verbTense(56, 2) = "monitor" : verbTense(56, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(56, 1) = "leading" : verbTense(56, 2) = "lead" : verbTense(56, 3) = "Y"</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(57, 1) = "organizing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(57, 1) = "leveraging"</v>
       </c>
       <c r="E58" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(57, 2) = "organize"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(57, 2) = "leverage"</v>
       </c>
       <c r="F58" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(57, 3) = "N"</v>
       </c>
       <c r="G58" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(57, 1) = "organizing" : verbTense(57, 2) = "organize" : verbTense(57, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(57, 1) = "leveraging" : verbTense(57, 2) = "leverage" : verbTense(57, 3) = "N"</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(58, 1) = "overseeing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(58, 1) = "liaising"</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(58, 2) = "oversee"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(58, 2) = "liaise"</v>
       </c>
       <c r="F59" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(58, 3) = "N"</v>
       </c>
       <c r="G59" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(58, 1) = "overseeing" : verbTense(58, 2) = "oversee" : verbTense(58, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(58, 1) = "liaising" : verbTense(58, 2) = "liaise" : verbTense(58, 3) = "N"</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(59, 1) = "participating"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(59, 1) = "looking"</v>
       </c>
       <c r="E60" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(59, 2) = "participate"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(59, 2) = "look"</v>
       </c>
       <c r="F60" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(59, 3) = "N"</v>
       </c>
       <c r="G60" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(59, 1) = "participating" : verbTense(59, 2) = "participate" : verbTense(59, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(59, 1) = "looking" : verbTense(59, 2) = "look" : verbTense(59, 3) = "N"</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(60, 1) = "patching"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(60, 1) = "making"</v>
       </c>
       <c r="E61" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(60, 2) = "patch"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(60, 2) = "make"</v>
       </c>
       <c r="F61" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>verbTense(60, 3) = "N"</v>
+        <f t="shared" si="12"/>
+        <v>verbTense(60, 3) = "Y"</v>
       </c>
       <c r="G61" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(60, 1) = "patching" : verbTense(60, 2) = "patch" : verbTense(60, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(60, 1) = "making" : verbTense(60, 2) = "make" : verbTense(60, 3) = "Y"</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(61, 1) = "performing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(61, 1) = "managing"</v>
       </c>
       <c r="E62" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(61, 2) = "perform"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(61, 2) = "manage"</v>
       </c>
       <c r="F62" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(61, 3) = "N"</v>
       </c>
       <c r="G62" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(61, 1) = "performing" : verbTense(61, 2) = "perform" : verbTense(61, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(61, 1) = "managing" : verbTense(61, 2) = "manage" : verbTense(61, 3) = "N"</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(62, 1) = "playing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(62, 1) = "mentoring"</v>
       </c>
       <c r="E63" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(62, 2) = "play"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(62, 2) = "mentor"</v>
       </c>
       <c r="F63" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(62, 3) = "N"</v>
       </c>
       <c r="G63" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(62, 1) = "playing" : verbTense(62, 2) = "play" : verbTense(62, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(62, 1) = "mentoring" : verbTense(62, 2) = "mentor" : verbTense(62, 3) = "N"</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(63, 1) = "preparing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(63, 1) = "migrating"</v>
       </c>
       <c r="E64" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(63, 2) = "prepare"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(63, 2) = "migrate"</v>
       </c>
       <c r="F64" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(63, 3) = "N"</v>
       </c>
       <c r="G64" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(63, 1) = "preparing" : verbTense(63, 2) = "prepare" : verbTense(63, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(63, 1) = "migrating" : verbTense(63, 2) = "migrate" : verbTense(63, 3) = "N"</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(64, 1) = "presenting"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(64, 1) = "modeling"</v>
       </c>
       <c r="E65" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(64, 2) = "present"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(64, 2) = "model"</v>
       </c>
       <c r="F65" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(64, 3) = "N"</v>
       </c>
       <c r="G65" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(64, 1) = "presenting" : verbTense(64, 2) = "present" : verbTense(64, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(64, 1) = "modeling" : verbTense(64, 2) = "model" : verbTense(64, 3) = "N"</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>verbTense(65, 1) = "prioritizing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(65, 1) = "monitoring"</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>verbTense(65, 2) = "prioritize"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(65, 2) = "monitor"</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>verbTense(65, 3) = "N"</v>
       </c>
       <c r="G66" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>verbTense(65, 1) = "prioritizing" : verbTense(65, 2) = "prioritize" : verbTense(65, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(65, 1) = "monitoring" : verbTense(65, 2) = "monitor" : verbTense(65, 3) = "N"</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" ref="D67:D87" si="8">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A67</f>
-        <v>verbTense(66, 1) = "prototyping"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(66, 1) = "organizing"</v>
       </c>
       <c r="E67" s="3" t="str">
-        <f t="shared" ref="E67:E87" si="9">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B67</f>
-        <v>verbTense(66, 2) = "prototype"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(66, 2) = "organize"</v>
       </c>
       <c r="F67" s="3" t="str">
-        <f t="shared" ref="F67:F86" si="10">"verbTense(" &amp; ROW(A67)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C67</f>
+        <f t="shared" si="12"/>
         <v>verbTense(66, 3) = "N"</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f t="shared" ref="G67:G86" si="11" xml:space="preserve"> D67 &amp; " : " &amp; E67 &amp; " : " &amp; F67</f>
-        <v>verbTense(66, 1) = "prototyping" : verbTense(66, 2) = "prototype" : verbTense(66, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(66, 1) = "organizing" : verbTense(66, 2) = "organize" : verbTense(66, 3) = "N"</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(67, 1) = "providing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(67, 1) = "overseeing"</v>
       </c>
       <c r="E68" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(67, 2) = "provide"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(67, 2) = "oversee"</v>
       </c>
       <c r="F68" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>verbTense(67, 3) = "N"</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(67, 1) = "providing" : verbTense(67, 2) = "provide" : verbTense(67, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(67, 1) = "overseeing" : verbTense(67, 2) = "oversee" : verbTense(67, 3) = "N"</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(68, 1) = "reporting"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(68, 1) = "participating"</v>
       </c>
       <c r="E69" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(68, 2) = "report"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(68, 2) = "participate"</v>
       </c>
       <c r="F69" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>verbTense(68, 3) = "N"</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(68, 1) = "reporting" : verbTense(68, 2) = "report" : verbTense(68, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(68, 1) = "participating" : verbTense(68, 2) = "participate" : verbTense(68, 3) = "N"</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(69, 1) = "representing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(69, 1) = "patching"</v>
       </c>
       <c r="E70" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(69, 2) = "represent"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(69, 2) = "patch"</v>
       </c>
       <c r="F70" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>verbTense(69, 3) = "N"</v>
       </c>
       <c r="G70" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(69, 1) = "representing" : verbTense(69, 2) = "represent" : verbTense(69, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(69, 1) = "patching" : verbTense(69, 2) = "patch" : verbTense(69, 3) = "N"</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(70, 1) = "researching"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(70, 1) = "performing"</v>
       </c>
       <c r="E71" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(70, 2) = "research"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(70, 2) = "perform"</v>
       </c>
       <c r="F71" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>verbTense(70, 3) = "N"</v>
       </c>
       <c r="G71" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(70, 1) = "researching" : verbTense(70, 2) = "research" : verbTense(70, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(70, 1) = "performing" : verbTense(70, 2) = "perform" : verbTense(70, 3) = "N"</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(71, 1) = "resolving"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(71, 1) = "planning"</v>
       </c>
       <c r="E72" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(71, 2) = "resolve"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(71, 2) = "plan"</v>
       </c>
       <c r="F72" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>verbTense(71, 3) = "N"</v>
       </c>
       <c r="G72" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(71, 1) = "resolving" : verbTense(71, 2) = "resolve" : verbTense(71, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(71, 1) = "planning" : verbTense(71, 2) = "plan" : verbTense(71, 3) = "N"</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(72, 1) = "securing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(72, 1) = "playing"</v>
       </c>
       <c r="E73" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(72, 2) = "secure"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(72, 2) = "play"</v>
       </c>
       <c r="F73" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>verbTense(72, 3) = "N"</v>
       </c>
       <c r="G73" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(72, 1) = "securing" : verbTense(72, 2) = "secure" : verbTense(72, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(72, 1) = "playing" : verbTense(72, 2) = "play" : verbTense(72, 3) = "N"</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(73, 1) = "setting"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(73, 1) = "preparing"</v>
       </c>
       <c r="E74" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(73, 2) = "set"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(73, 2) = "prepare"</v>
       </c>
       <c r="F74" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>verbTense(73, 3) = "N"</v>
       </c>
       <c r="G74" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(73, 1) = "setting" : verbTense(73, 2) = "set" : verbTense(73, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(73, 1) = "preparing" : verbTense(73, 2) = "prepare" : verbTense(73, 3) = "N"</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(74, 1) = "sharing"</v>
+        <f t="shared" si="10"/>
+        <v>verbTense(74, 1) = "presenting"</v>
       </c>
       <c r="E75" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(74, 2) = "share"</v>
+        <f t="shared" si="11"/>
+        <v>verbTense(74, 2) = "present"</v>
       </c>
       <c r="F75" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>verbTense(74, 3) = "N"</v>
       </c>
       <c r="G75" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(74, 1) = "sharing" : verbTense(74, 2) = "share" : verbTense(74, 3) = "N"</v>
+        <f t="shared" si="13"/>
+        <v>verbTense(74, 1) = "presenting" : verbTense(74, 2) = "present" : verbTense(74, 3) = "N"</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(75, 1) = "solving"</v>
+        <f t="shared" ref="D76:D102" si="18">"verbTense(" &amp; ROW(A76)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; A76</f>
+        <v>verbTense(75, 1) = "prioritizing"</v>
       </c>
       <c r="E76" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(75, 2) = "solve"</v>
+        <f t="shared" ref="E76:E102" si="19">"verbTense(" &amp; ROW(A76)-1 &amp; ", " &amp; 2 &amp; ") = " &amp; B76</f>
+        <v>verbTense(75, 2) = "prioritize"</v>
       </c>
       <c r="F76" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F76:F102" si="20">"verbTense(" &amp; ROW(A76)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C76</f>
         <v>verbTense(75, 3) = "N"</v>
       </c>
       <c r="G76" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(75, 1) = "solving" : verbTense(75, 2) = "solve" : verbTense(75, 3) = "N"</v>
+        <f t="shared" ref="G76:G102" si="21" xml:space="preserve"> D76 &amp; " : " &amp; E76 &amp; " : " &amp; F76</f>
+        <v>verbTense(75, 1) = "prioritizing" : verbTense(75, 2) = "prioritize" : verbTense(75, 3) = "N"</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(76, 1) = "tracking"</v>
+        <f t="shared" si="18"/>
+        <v>verbTense(76, 1) = "prototyping"</v>
       </c>
       <c r="E77" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(76, 2) = "track"</v>
+        <f t="shared" si="19"/>
+        <v>verbTense(76, 2) = "prototype"</v>
       </c>
       <c r="F77" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>verbTense(76, 3) = "N"</v>
       </c>
       <c r="G77" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(76, 1) = "tracking" : verbTense(76, 2) = "track" : verbTense(76, 3) = "N"</v>
+        <f t="shared" si="21"/>
+        <v>verbTense(76, 1) = "prototyping" : verbTense(76, 2) = "prototype" : verbTense(76, 3) = "N"</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(77, 1) = "translating"</v>
+        <f t="shared" si="18"/>
+        <v>verbTense(77, 1) = "providing"</v>
       </c>
       <c r="E78" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(77, 2) = "translate"</v>
+        <f t="shared" si="19"/>
+        <v>verbTense(77, 2) = "provide"</v>
       </c>
       <c r="F78" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>verbTense(77, 3) = "N"</v>
       </c>
       <c r="G78" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(77, 1) = "translating" : verbTense(77, 2) = "translate" : verbTense(77, 3) = "N"</v>
+        <f t="shared" si="21"/>
+        <v>verbTense(77, 1) = "providing" : verbTense(77, 2) = "provide" : verbTense(77, 3) = "N"</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(78, 1) = "troubleshooting"</v>
+        <f t="shared" si="18"/>
+        <v>verbTense(78, 1) = "publishing"</v>
       </c>
       <c r="E79" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(78, 2) = "troubleshoot"</v>
+        <f t="shared" si="19"/>
+        <v>verbTense(78, 2) = "publish"</v>
       </c>
       <c r="F79" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F79" si="22">"verbTense(" &amp; ROW(A79)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C79</f>
         <v>verbTense(78, 3) = "N"</v>
       </c>
       <c r="G79" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(78, 1) = "troubleshooting" : verbTense(78, 2) = "troubleshoot" : verbTense(78, 3) = "N"</v>
+        <f t="shared" ref="G79" si="23" xml:space="preserve"> D79 &amp; " : " &amp; E79 &amp; " : " &amp; F79</f>
+        <v>verbTense(78, 1) = "publishing" : verbTense(78, 2) = "publish" : verbTense(78, 3) = "N"</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(79, 1) = "understanding"</v>
+        <f t="shared" si="18"/>
+        <v>verbTense(79, 1) = "reporting"</v>
       </c>
       <c r="E80" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(79, 2) = "understand"</v>
+        <f t="shared" si="19"/>
+        <v>verbTense(79, 2) = "report"</v>
       </c>
       <c r="F80" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>verbTense(79, 3) = "Y"</v>
+        <f t="shared" si="20"/>
+        <v>verbTense(79, 3) = "N"</v>
       </c>
       <c r="G80" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(79, 1) = "understanding" : verbTense(79, 2) = "understand" : verbTense(79, 3) = "Y"</v>
+        <f t="shared" si="21"/>
+        <v>verbTense(79, 1) = "reporting" : verbTense(79, 2) = "report" : verbTense(79, 3) = "N"</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(80, 1) = "updating"</v>
+        <f t="shared" si="18"/>
+        <v>verbTense(80, 1) = "representing"</v>
       </c>
       <c r="E81" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(80, 2) = "update"</v>
+        <f t="shared" si="19"/>
+        <v>verbTense(80, 2) = "represent"</v>
       </c>
       <c r="F81" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>verbTense(80, 3) = "N"</v>
       </c>
       <c r="G81" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(80, 1) = "updating" : verbTense(80, 2) = "update" : verbTense(80, 3) = "N"</v>
+        <f t="shared" si="21"/>
+        <v>verbTense(80, 1) = "representing" : verbTense(80, 2) = "represent" : verbTense(80, 3) = "N"</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(81, 1) = "uploading"</v>
+        <f t="shared" si="18"/>
+        <v>verbTense(81, 1) = "researching"</v>
       </c>
       <c r="E82" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(81, 2) = "upload"</v>
+        <f t="shared" si="19"/>
+        <v>verbTense(81, 2) = "research"</v>
       </c>
       <c r="F82" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>verbTense(81, 3) = "N"</v>
       </c>
       <c r="G82" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(81, 1) = "uploading" : verbTense(81, 2) = "upload" : verbTense(81, 3) = "N"</v>
+        <f t="shared" si="21"/>
+        <v>verbTense(81, 1) = "researching" : verbTense(81, 2) = "research" : verbTense(81, 3) = "N"</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>167</v>
+      <c r="A83" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(82, 1) = "using"</v>
+        <f t="shared" si="18"/>
+        <v>verbTense(82, 1) = "resolving"</v>
       </c>
       <c r="E83" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(82, 2) = "use"</v>
+        <f t="shared" si="19"/>
+        <v>verbTense(82, 2) = "resolve"</v>
       </c>
       <c r="F83" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>verbTense(82, 3) = "N"</v>
       </c>
       <c r="G83" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(82, 1) = "using" : verbTense(82, 2) = "use" : verbTense(82, 3) = "N"</v>
+        <f t="shared" si="21"/>
+        <v>verbTense(82, 1) = "resolving" : verbTense(82, 2) = "resolve" : verbTense(82, 3) = "N"</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(83, 1) = "validating"</v>
+        <f t="shared" si="18"/>
+        <v>verbTense(83, 1) = "reviewing"</v>
       </c>
       <c r="E84" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(83, 2) = "validate"</v>
+        <f t="shared" si="19"/>
+        <v>verbTense(83, 2) = "review"</v>
       </c>
       <c r="F84" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F84" si="24">"verbTense(" &amp; ROW(A84)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C84</f>
         <v>verbTense(83, 3) = "N"</v>
       </c>
       <c r="G84" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(83, 1) = "validating" : verbTense(83, 2) = "validate" : verbTense(83, 3) = "N"</v>
+        <f t="shared" ref="G84" si="25" xml:space="preserve"> D84 &amp; " : " &amp; E84 &amp; " : " &amp; F84</f>
+        <v>verbTense(83, 1) = "reviewing" : verbTense(83, 2) = "review" : verbTense(83, 3) = "N"</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(84, 1) = "working"</v>
+        <f t="shared" si="18"/>
+        <v>verbTense(84, 1) = "securing"</v>
       </c>
       <c r="E85" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(84, 2) = "work"</v>
+        <f t="shared" si="19"/>
+        <v>verbTense(84, 2) = "secure"</v>
       </c>
       <c r="F85" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>verbTense(84, 3) = "N"</v>
       </c>
       <c r="G85" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(84, 1) = "working" : verbTense(84, 2) = "work" : verbTense(84, 3) = "N"</v>
+        <f t="shared" si="21"/>
+        <v>verbTense(84, 1) = "securing" : verbTense(84, 2) = "secure" : verbTense(84, 3) = "N"</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(85, 1) = "setting"</v>
+      </c>
+      <c r="E86" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(85, 2) = "set"</v>
+      </c>
+      <c r="F86" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(85, 3) = "N"</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(85, 1) = "setting" : verbTense(85, 2) = "set" : verbTense(85, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(86, 1) = "sharing"</v>
+      </c>
+      <c r="E87" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(86, 2) = "share"</v>
+      </c>
+      <c r="F87" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(86, 3) = "N"</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(86, 1) = "sharing" : verbTense(86, 2) = "share" : verbTense(86, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(85, 1) = "writing"</v>
-      </c>
-      <c r="E86" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(85, 2) = "write"</v>
-      </c>
-      <c r="F86" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>verbTense(85, 3) = "Y"</v>
-      </c>
-      <c r="G86" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>verbTense(85, 1) = "writing" : verbTense(85, 2) = "write" : verbTense(85, 3) = "Y"</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="B88" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>verbTense(86, 1) = ""</v>
-      </c>
-      <c r="E87" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>verbTense(86, 2) = ""</v>
-      </c>
-      <c r="F87" s="6" t="str">
-        <f t="shared" ref="F87" si="12">"verbTense(" &amp; ROW(A87)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C87</f>
-        <v>verbTense(86, 3) = "N"</v>
-      </c>
-      <c r="G87" s="6" t="str">
-        <f t="shared" ref="G87" si="13" xml:space="preserve"> D87 &amp; " : " &amp; E87 &amp; " : " &amp; F87</f>
-        <v>verbTense(86, 1) = "" : verbTense(86, 2) = "" : verbTense(86, 3) = "N"</v>
+      <c r="C88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(87, 1) = "solving"</v>
+      </c>
+      <c r="E88" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(87, 2) = "solve"</v>
+      </c>
+      <c r="F88" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(87, 3) = "N"</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(87, 1) = "solving" : verbTense(87, 2) = "solve" : verbTense(87, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(88, 1) = "suggesting"</v>
+      </c>
+      <c r="E89" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(88, 2) = "suggest"</v>
+      </c>
+      <c r="F89" s="3" t="str">
+        <f t="shared" ref="F89" si="26">"verbTense(" &amp; ROW(A89)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C89</f>
+        <v>verbTense(88, 3) = "N"</v>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f t="shared" ref="G89" si="27" xml:space="preserve"> D89 &amp; " : " &amp; E89 &amp; " : " &amp; F89</f>
+        <v>verbTense(88, 1) = "suggesting" : verbTense(88, 2) = "suggest" : verbTense(88, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(89, 1) = "supervising"</v>
+      </c>
+      <c r="E90" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(89, 2) = "supervise"</v>
+      </c>
+      <c r="F90" s="3" t="str">
+        <f t="shared" ref="F90:F91" si="28">"verbTense(" &amp; ROW(A90)-1 &amp; ", " &amp; 3 &amp; ") = " &amp; C90</f>
+        <v>verbTense(89, 3) = "N"</v>
+      </c>
+      <c r="G90" s="3" t="str">
+        <f t="shared" ref="G90:G91" si="29" xml:space="preserve"> D90 &amp; " : " &amp; E90 &amp; " : " &amp; F90</f>
+        <v>verbTense(89, 1) = "supervising" : verbTense(89, 2) = "supervise" : verbTense(89, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(90, 1) = "taking"</v>
+      </c>
+      <c r="E91" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(90, 2) = "take"</v>
+      </c>
+      <c r="F91" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>verbTense(90, 3) = "N"</v>
+      </c>
+      <c r="G91" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>verbTense(90, 1) = "taking" : verbTense(90, 2) = "take" : verbTense(90, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(91, 1) = "tracking"</v>
+      </c>
+      <c r="E92" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(91, 2) = "track"</v>
+      </c>
+      <c r="F92" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(91, 3) = "N"</v>
+      </c>
+      <c r="G92" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(91, 1) = "tracking" : verbTense(91, 2) = "track" : verbTense(91, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(92, 1) = "translating"</v>
+      </c>
+      <c r="E93" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(92, 2) = "translate"</v>
+      </c>
+      <c r="F93" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(92, 3) = "N"</v>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(92, 1) = "translating" : verbTense(92, 2) = "translate" : verbTense(92, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(93, 1) = "troubleshooting"</v>
+      </c>
+      <c r="E94" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(93, 2) = "troubleshoot"</v>
+      </c>
+      <c r="F94" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(93, 3) = "N"</v>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(93, 1) = "troubleshooting" : verbTense(93, 2) = "troubleshoot" : verbTense(93, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(94, 1) = "understanding"</v>
+      </c>
+      <c r="E95" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(94, 2) = "understand"</v>
+      </c>
+      <c r="F95" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(94, 3) = "Y"</v>
+      </c>
+      <c r="G95" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(94, 1) = "understanding" : verbTense(94, 2) = "understand" : verbTense(94, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(95, 1) = "updating"</v>
+      </c>
+      <c r="E96" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(95, 2) = "update"</v>
+      </c>
+      <c r="F96" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(95, 3) = "N"</v>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(95, 1) = "updating" : verbTense(95, 2) = "update" : verbTense(95, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(96, 1) = "upgrading"</v>
+      </c>
+      <c r="E97" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(96, 2) = "upgrade"</v>
+      </c>
+      <c r="F97" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(96, 3) = "N"</v>
+      </c>
+      <c r="G97" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(96, 1) = "upgrading" : verbTense(96, 2) = "upgrade" : verbTense(96, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(97, 1) = "uploading"</v>
+      </c>
+      <c r="E98" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(97, 2) = "upload"</v>
+      </c>
+      <c r="F98" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(97, 3) = "N"</v>
+      </c>
+      <c r="G98" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(97, 1) = "uploading" : verbTense(97, 2) = "upload" : verbTense(97, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(98, 1) = "validating"</v>
+      </c>
+      <c r="E99" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(98, 2) = "validate"</v>
+      </c>
+      <c r="F99" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(98, 3) = "N"</v>
+      </c>
+      <c r="G99" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(98, 1) = "validating" : verbTense(98, 2) = "validate" : verbTense(98, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(99, 1) = "working"</v>
+      </c>
+      <c r="E100" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(99, 2) = "work"</v>
+      </c>
+      <c r="F100" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(99, 3) = "N"</v>
+      </c>
+      <c r="G100" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(99, 1) = "working" : verbTense(99, 2) = "work" : verbTense(99, 3) = "N"</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(100, 1) = "writing"</v>
+      </c>
+      <c r="E101" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(100, 2) = "write"</v>
+      </c>
+      <c r="F101" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(100, 3) = "Y"</v>
+      </c>
+      <c r="G101" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(100, 1) = "writing" : verbTense(100, 2) = "write" : verbTense(100, 3) = "Y"</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>verbTense(101, 1) = ""</v>
+      </c>
+      <c r="E102" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v>verbTense(101, 2) = ""</v>
+      </c>
+      <c r="F102" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v>verbTense(101, 3) = "N"</v>
+      </c>
+      <c r="G102" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>verbTense(101, 1) = "" : verbTense(101, 2) = "" : verbTense(101, 3) = "N"</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B86">
-    <sortCondition ref="A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G102">
+    <sortCondition ref="A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
